--- a/业绩报表/605179.xlsx
+++ b/业绩报表/605179.xlsx
@@ -1159,46 +1159,50 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-15 00:00:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="K6" t="n">
-        <v>1366047165.1</v>
+        <v>1997112513.68</v>
       </c>
       <c r="L6" t="n">
-        <v>98925473.91</v>
+        <v>173994761.11</v>
       </c>
       <c r="M6" t="n">
-        <v>13.92</v>
+        <v>30.29</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.6686904298</v>
+        <v>13.797705172</v>
       </c>
       <c r="O6" t="n">
-        <v>-20.05</v>
+        <v>10.5094616819</v>
       </c>
       <c r="P6" t="n">
-        <v>2.235209239029</v>
+        <v>1.944785347324</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.384288981971</v>
+        <v>0.876361199941</v>
       </c>
       <c r="R6" t="n">
-        <v>39.9840441029</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+        <v>39.2799002448</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.792</v>
+      </c>
+      <c r="T6" t="n">
+        <v>27.9966</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
@@ -1224,32 +1228,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2020Q3</t>
+          <t>2019Q4</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2020年 三季报</t>
+          <t>2019年 年报</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>三季报</t>
+          <t>年报</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2020-12-08 08:06:41</t>
+          <t>2020-12-08 07:26:10</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
